--- a/02. RAB Kegiatan IAMARI.xlsx
+++ b/02. RAB Kegiatan IAMARI.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="152">
   <si>
     <t>032.12.05</t>
   </si>
@@ -474,12 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">    -     Pekerjaan ME Akuarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -     AC Gedung Riset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -     Instalasi Pengolahan Air Limbah (IPAL)</t>
   </si>
   <si>
     <t xml:space="preserve">    -     Pengadaan Interior, Furnitur dan Meubelair Gedung Riset dan Gedung Akuarium</t>
@@ -6657,7 +6651,7 @@
   <dimension ref="B1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
@@ -8652,8 +8646,8 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8825,7 +8819,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="10">
         <v>2</v>
@@ -8842,7 +8836,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K9" s="10">
         <v>2</v>
@@ -8853,7 +8847,7 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11">
         <f>N10</f>
-        <v>40200000000</v>
+        <v>38461093000</v>
       </c>
       <c r="P9" s="8"/>
     </row>
@@ -8883,7 +8877,7 @@
       <c r="M10" s="39"/>
       <c r="N10" s="39">
         <f>N11+N31</f>
-        <v>40200000000</v>
+        <v>38461093000</v>
       </c>
       <c r="P10" s="75"/>
     </row>
@@ -8913,7 +8907,7 @@
       <c r="M11" s="39"/>
       <c r="N11" s="39">
         <f>N12+N21+N28</f>
-        <v>6267325000</v>
+        <v>4528418000</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="69" customFormat="1">
@@ -8942,7 +8936,7 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39">
         <f>N13</f>
-        <v>4640267000</v>
+        <v>2901360000</v>
       </c>
       <c r="O12" s="75"/>
     </row>
@@ -8972,7 +8966,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11">
         <f>SUM(N14:N20)</f>
-        <v>4640267000</v>
+        <v>2901360000</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -9136,22 +9130,11 @@
       <c r="G18" s="11"/>
       <c r="H18" s="31"/>
       <c r="I18" s="30"/>
-      <c r="J18" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="82">
-        <v>1</v>
-      </c>
-      <c r="L18" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="83">
-        <v>1542000000</v>
-      </c>
-      <c r="N18" s="83">
-        <f t="shared" si="1"/>
-        <v>1542000000</v>
-      </c>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
@@ -9164,20 +9147,11 @@
       <c r="G19" s="11"/>
       <c r="H19" s="31"/>
       <c r="I19" s="30"/>
-      <c r="J19" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="82">
-        <v>1</v>
-      </c>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
       <c r="L19" s="82"/>
-      <c r="M19" s="83">
-        <v>196907000</v>
-      </c>
-      <c r="N19" s="83">
-        <f t="shared" si="1"/>
-        <v>196907000</v>
-      </c>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
@@ -9361,7 +9335,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="30"/>
       <c r="J25" s="81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K25" s="82">
         <v>1</v>
@@ -9385,7 +9359,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="30"/>
       <c r="J26" s="81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K26" s="82">
         <v>1</v>
@@ -9454,7 +9428,7 @@
         <v>8</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
@@ -9474,7 +9448,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="30"/>
       <c r="J29" s="81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" s="82">
         <v>1</v>
@@ -9500,7 +9474,7 @@
       <c r="H30" s="31"/>
       <c r="I30" s="30"/>
       <c r="J30" s="81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K30" s="82">
         <v>1</v>
@@ -9730,7 +9704,7 @@
       <c r="H37" s="31"/>
       <c r="I37" s="30"/>
       <c r="J37" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K37" s="82">
         <v>1</v>
@@ -9756,7 +9730,7 @@
       <c r="H38" s="31"/>
       <c r="I38" s="30"/>
       <c r="J38" s="81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K38" s="82">
         <v>1</v>
@@ -9782,7 +9756,7 @@
       <c r="H39" s="31"/>
       <c r="I39" s="30"/>
       <c r="J39" s="81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K39" s="82">
         <v>1</v>
@@ -9808,7 +9782,7 @@
       <c r="H40" s="31"/>
       <c r="I40" s="30"/>
       <c r="J40" s="81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K40" s="82">
         <v>1</v>
